--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,36 +1395,6 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,6 +1395,36 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22-30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
